--- a/Code/Results/Cases/Case_0_169/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_169/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.908999186687863</v>
+        <v>12.918295161877</v>
       </c>
       <c r="D2">
-        <v>4.536789397395064</v>
+        <v>7.103945128901083</v>
       </c>
       <c r="E2">
-        <v>8.357818771526036</v>
+        <v>13.106672879016</v>
       </c>
       <c r="F2">
-        <v>28.26348180175343</v>
+        <v>35.58975141445249</v>
       </c>
       <c r="G2">
-        <v>40.77210265002778</v>
+        <v>48.48959649390691</v>
       </c>
       <c r="H2">
-        <v>12.67139937549138</v>
+        <v>19.06744198685161</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.66815979089123</v>
+        <v>16.92297178975247</v>
       </c>
       <c r="L2">
-        <v>5.143716587701422</v>
+        <v>9.041396333130493</v>
       </c>
       <c r="M2">
-        <v>16.48432482465899</v>
+        <v>18.99571619886904</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.557747714390933</v>
+        <v>12.89303684160258</v>
       </c>
       <c r="D3">
-        <v>4.63326248054525</v>
+        <v>7.127969977274086</v>
       </c>
       <c r="E3">
-        <v>8.26372532472725</v>
+        <v>13.12951576712277</v>
       </c>
       <c r="F3">
-        <v>27.47244928481322</v>
+        <v>35.59459545528607</v>
       </c>
       <c r="G3">
-        <v>39.51257904096136</v>
+        <v>48.47125231731943</v>
       </c>
       <c r="H3">
-        <v>12.58808738001678</v>
+        <v>19.1240674005624</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.25111622305264</v>
+        <v>16.52711855544097</v>
       </c>
       <c r="L3">
-        <v>5.188207860593259</v>
+        <v>9.064217242582453</v>
       </c>
       <c r="M3">
-        <v>15.61508722333115</v>
+        <v>18.84518672540883</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.344088110891438</v>
+        <v>12.88053874046285</v>
       </c>
       <c r="D4">
-        <v>4.693089608176986</v>
+        <v>7.143363264747961</v>
       </c>
       <c r="E4">
-        <v>8.211707983956346</v>
+        <v>13.14589474471633</v>
       </c>
       <c r="F4">
-        <v>27.01356441467979</v>
+        <v>35.60909272466211</v>
       </c>
       <c r="G4">
-        <v>38.78243385348254</v>
+        <v>48.47803157103592</v>
       </c>
       <c r="H4">
-        <v>12.5507159748044</v>
+        <v>19.16330571935821</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.33324477416267</v>
+        <v>16.28253997284509</v>
       </c>
       <c r="L4">
-        <v>5.217304009864358</v>
+        <v>9.079128988207758</v>
       </c>
       <c r="M4">
-        <v>15.06604642247435</v>
+        <v>18.75591056551995</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.257615740543091</v>
+        <v>12.87620540207645</v>
       </c>
       <c r="D5">
-        <v>4.717642967548382</v>
+        <v>7.149798315937336</v>
       </c>
       <c r="E5">
-        <v>8.191920239359979</v>
+        <v>13.15316015756776</v>
       </c>
       <c r="F5">
-        <v>26.83329478898777</v>
+        <v>35.61788741569617</v>
       </c>
       <c r="G5">
-        <v>38.49575275086538</v>
+        <v>48.4853125045975</v>
       </c>
       <c r="H5">
-        <v>12.53878910935215</v>
+        <v>19.1804151840398</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.94705295147251</v>
+        <v>16.18263658412292</v>
       </c>
       <c r="L5">
-        <v>5.229601458388497</v>
+        <v>9.085432266825419</v>
       </c>
       <c r="M5">
-        <v>14.83867125612869</v>
+        <v>18.72035403059067</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.243295844831009</v>
+        <v>12.87553180615337</v>
       </c>
       <c r="D6">
-        <v>4.721731187930358</v>
+        <v>7.150876667287077</v>
       </c>
       <c r="E6">
-        <v>8.188718516351909</v>
+        <v>13.15440223069518</v>
       </c>
       <c r="F6">
-        <v>26.80376691390613</v>
+        <v>35.61952177697255</v>
       </c>
       <c r="G6">
-        <v>38.44880465893461</v>
+        <v>48.48679376113039</v>
       </c>
       <c r="H6">
-        <v>12.53700331633779</v>
+        <v>19.18332368000112</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.88218843235683</v>
+        <v>16.16603788089413</v>
       </c>
       <c r="L6">
-        <v>5.231669866775246</v>
+        <v>9.086492620789555</v>
       </c>
       <c r="M6">
-        <v>14.80070347571597</v>
+        <v>18.7145005901843</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.342919376995795</v>
+        <v>12.8804772203395</v>
       </c>
       <c r="D7">
-        <v>4.693420010405742</v>
+        <v>7.143449392557521</v>
       </c>
       <c r="E7">
-        <v>8.211435462272638</v>
+        <v>13.14599033759708</v>
       </c>
       <c r="F7">
-        <v>27.01110601564466</v>
+        <v>35.60919965970772</v>
       </c>
       <c r="G7">
-        <v>38.77852363342316</v>
+        <v>48.47811149790135</v>
       </c>
       <c r="H7">
-        <v>12.55054197069092</v>
+        <v>19.16353193679377</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.328085827936</v>
+        <v>16.2811933962777</v>
       </c>
       <c r="L7">
-        <v>5.217468082101921</v>
+        <v>9.079213078313456</v>
       </c>
       <c r="M7">
-        <v>15.06299436201999</v>
+        <v>18.75542765890399</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.787521584986223</v>
+        <v>12.90896306255167</v>
       </c>
       <c r="D8">
-        <v>4.569945546736485</v>
+        <v>7.112096110438987</v>
       </c>
       <c r="E8">
-        <v>8.324158200097514</v>
+        <v>13.11406013947048</v>
       </c>
       <c r="F8">
-        <v>27.98516529529246</v>
+        <v>35.58902432560549</v>
       </c>
       <c r="G8">
-        <v>40.32885471481984</v>
+        <v>48.47951682632047</v>
       </c>
       <c r="H8">
-        <v>12.63971481645794</v>
+        <v>19.08603599290167</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.18940265200566</v>
+        <v>16.78688440083184</v>
       </c>
       <c r="L8">
-        <v>5.158683860076194</v>
+        <v>9.049078511499676</v>
       </c>
       <c r="M8">
-        <v>16.18790734617622</v>
+        <v>18.94317971773953</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.67195139428982</v>
+        <v>12.988563597117</v>
       </c>
       <c r="D9">
-        <v>4.331328422710127</v>
+        <v>7.055671935964545</v>
       </c>
       <c r="E9">
-        <v>8.592544655403705</v>
+        <v>13.07015645676036</v>
       </c>
       <c r="F9">
-        <v>30.10830830005334</v>
+        <v>35.64126264903014</v>
       </c>
       <c r="G9">
-        <v>43.71161917083933</v>
+        <v>48.62605229249938</v>
       </c>
       <c r="H9">
-        <v>12.93120531707871</v>
+        <v>18.96973113091391</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.46649626143813</v>
+        <v>17.76028493596618</v>
       </c>
       <c r="L9">
-        <v>5.057858191481273</v>
+        <v>8.997104460543927</v>
       </c>
       <c r="M9">
-        <v>18.29048235861585</v>
+        <v>19.33487188304712</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.32590590193149</v>
+        <v>13.06127795791999</v>
       </c>
       <c r="D10">
-        <v>4.156380917708629</v>
+        <v>7.017253896737169</v>
       </c>
       <c r="E10">
-        <v>8.82090120568753</v>
+        <v>13.04935597988921</v>
       </c>
       <c r="F10">
-        <v>31.79906687892648</v>
+        <v>35.73596464366022</v>
       </c>
       <c r="G10">
-        <v>46.40658064040376</v>
+        <v>48.82189571095721</v>
       </c>
       <c r="H10">
-        <v>13.22639196089747</v>
+        <v>18.90628449656656</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.65627217554585</v>
+        <v>18.45653557215127</v>
       </c>
       <c r="L10">
-        <v>4.993134222237609</v>
+        <v>8.963234217349928</v>
       </c>
       <c r="M10">
-        <v>20.01908771774659</v>
+        <v>19.63492397590771</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.62390556650321</v>
+        <v>13.09738249617869</v>
       </c>
       <c r="D11">
-        <v>4.076440467905367</v>
+        <v>7.000425831450706</v>
       </c>
       <c r="E11">
-        <v>8.932082279089155</v>
+        <v>13.04238913344264</v>
       </c>
       <c r="F11">
-        <v>32.5973021371375</v>
+        <v>35.79130196128144</v>
       </c>
       <c r="G11">
-        <v>47.67904225197364</v>
+        <v>48.93014881395691</v>
       </c>
       <c r="H11">
-        <v>13.3804250916676</v>
+        <v>18.88225113467887</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.60742398817717</v>
+        <v>18.76768279774286</v>
       </c>
       <c r="L11">
-        <v>4.965865446025563</v>
+        <v>8.948757458716704</v>
       </c>
       <c r="M11">
-        <v>20.770979927831</v>
+        <v>19.77363589346464</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.73681436840036</v>
+        <v>13.11148291078159</v>
       </c>
       <c r="D12">
-        <v>4.046078890564363</v>
+        <v>6.994145969235007</v>
       </c>
       <c r="E12">
-        <v>8.975280527559914</v>
+        <v>13.04011027382665</v>
       </c>
       <c r="F12">
-        <v>32.90385684159084</v>
+        <v>35.814017052692</v>
       </c>
       <c r="G12">
-        <v>48.167736937092</v>
+        <v>48.97388964074673</v>
       </c>
       <c r="H12">
-        <v>13.44177457205981</v>
+        <v>18.87384871784806</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.96133794915585</v>
+        <v>18.88459082440583</v>
       </c>
       <c r="L12">
-        <v>4.955866578344107</v>
+        <v>8.943408971679773</v>
       </c>
       <c r="M12">
-        <v>21.05092087854758</v>
+        <v>19.82644218917697</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.71249459904126</v>
+        <v>13.10842719540621</v>
       </c>
       <c r="D13">
-        <v>4.052622445052773</v>
+        <v>6.995494344184033</v>
       </c>
       <c r="E13">
-        <v>8.965927454912419</v>
+        <v>13.04058507887873</v>
       </c>
       <c r="F13">
-        <v>32.83764235508129</v>
+        <v>35.80904673954651</v>
       </c>
       <c r="G13">
-        <v>48.06218013590561</v>
+        <v>48.96434724441883</v>
       </c>
       <c r="H13">
-        <v>13.42842458744435</v>
+        <v>18.87562719946914</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.88539152318163</v>
+        <v>18.85945508472485</v>
       </c>
       <c r="L13">
-        <v>4.958005205958317</v>
+        <v>8.944554929648918</v>
       </c>
       <c r="M13">
-        <v>20.99084047633956</v>
+        <v>19.81505762914014</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.6331933724978</v>
+        <v>13.09853400094301</v>
       </c>
       <c r="D14">
-        <v>4.073944636185536</v>
+        <v>6.99990733228719</v>
       </c>
       <c r="E14">
-        <v>8.935613967464105</v>
+        <v>13.04219444627218</v>
       </c>
       <c r="F14">
-        <v>32.62243606191598</v>
+        <v>35.79313549488663</v>
       </c>
       <c r="G14">
-        <v>47.71910915794676</v>
+        <v>48.93369239270118</v>
       </c>
       <c r="H14">
-        <v>13.3854107602397</v>
+        <v>18.88154584104583</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.63666506637983</v>
+        <v>18.77731988631687</v>
       </c>
       <c r="L14">
-        <v>4.9650361843346</v>
+        <v>8.94831476083497</v>
       </c>
       <c r="M14">
-        <v>20.79410568726206</v>
+        <v>19.77797493350619</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.58462728496313</v>
+        <v>13.09252971294793</v>
       </c>
       <c r="D15">
-        <v>4.086992190595592</v>
+        <v>7.002622448670233</v>
       </c>
       <c r="E15">
-        <v>8.917190328227731</v>
+        <v>13.04322703891795</v>
       </c>
       <c r="F15">
-        <v>32.49117712754948</v>
+        <v>35.78361849089806</v>
       </c>
       <c r="G15">
-        <v>47.50986524058791</v>
+        <v>48.91527292566303</v>
       </c>
       <c r="H15">
-        <v>13.35946236091689</v>
+        <v>18.88526226335491</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.48350317029227</v>
+        <v>18.7268870861661</v>
       </c>
       <c r="L15">
-        <v>4.969385943102608</v>
+        <v>8.950635148193621</v>
       </c>
       <c r="M15">
-        <v>20.67298223268963</v>
+        <v>19.75529587816633</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.306439842756</v>
+        <v>13.05897877531683</v>
       </c>
       <c r="D16">
-        <v>4.161594814480892</v>
+        <v>7.018366640436051</v>
       </c>
       <c r="E16">
-        <v>8.813786043335785</v>
+        <v>13.04986153882227</v>
       </c>
       <c r="F16">
-        <v>31.74749296694798</v>
+        <v>35.73259470733986</v>
       </c>
       <c r="G16">
-        <v>46.32436930874533</v>
+        <v>48.81520616541081</v>
       </c>
       <c r="H16">
-        <v>13.21673825656554</v>
+        <v>18.90795265811104</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.59322379554494</v>
+        <v>18.43607911431458</v>
       </c>
       <c r="L16">
-        <v>4.994961253382971</v>
+        <v>8.964199013248544</v>
       </c>
       <c r="M16">
-        <v>19.96927063991523</v>
+        <v>19.62590004778721</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.13589801892489</v>
+        <v>13.03916687672105</v>
       </c>
       <c r="D17">
-        <v>4.207243374646841</v>
+        <v>7.028190792439346</v>
       </c>
       <c r="E17">
-        <v>8.75225244949204</v>
+        <v>13.05457111319326</v>
       </c>
       <c r="F17">
-        <v>31.29877318474797</v>
+        <v>35.70443161458347</v>
       </c>
       <c r="G17">
-        <v>45.60910080139989</v>
+        <v>48.75872254082394</v>
       </c>
       <c r="H17">
-        <v>13.1343669388974</v>
+        <v>18.9231122513174</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.03568217467845</v>
+        <v>18.25616452160415</v>
       </c>
       <c r="L17">
-        <v>5.011217526527409</v>
+        <v>8.972758217791453</v>
       </c>
       <c r="M17">
-        <v>19.52885732146612</v>
+        <v>19.54705952574392</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.03785454954743</v>
+        <v>13.02805690472259</v>
       </c>
       <c r="D18">
-        <v>4.233468210164983</v>
+        <v>7.033902465031224</v>
       </c>
       <c r="E18">
-        <v>8.717544102192472</v>
+        <v>13.05751479190883</v>
       </c>
       <c r="F18">
-        <v>31.04341220052879</v>
+        <v>35.68938693968911</v>
       </c>
       <c r="G18">
-        <v>45.20206130038761</v>
+        <v>48.7280391573114</v>
       </c>
       <c r="H18">
-        <v>13.08883718329475</v>
+        <v>18.93228592714488</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.71075132013278</v>
+        <v>18.15216340820511</v>
       </c>
       <c r="L18">
-        <v>5.020771392672012</v>
+        <v>8.97776889374823</v>
       </c>
       <c r="M18">
-        <v>19.27228868783175</v>
+        <v>19.50192358756158</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.00466756460956</v>
+        <v>13.02434445714508</v>
       </c>
       <c r="D19">
-        <v>4.24234329212529</v>
+        <v>7.03584685098726</v>
       </c>
       <c r="E19">
-        <v>8.705908609253351</v>
+        <v>13.05855179051104</v>
       </c>
       <c r="F19">
-        <v>30.95741824460976</v>
+        <v>35.68449130333203</v>
       </c>
       <c r="G19">
-        <v>45.06499096047111</v>
+        <v>48.71796037302333</v>
       </c>
       <c r="H19">
-        <v>13.0737335927137</v>
+        <v>18.93546987021357</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.59999989693848</v>
+        <v>18.11686490006816</v>
       </c>
       <c r="L19">
-        <v>5.024040741049125</v>
+        <v>8.979480486205869</v>
       </c>
       <c r="M19">
-        <v>19.18485503152701</v>
+        <v>19.48667878539856</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.15404769612741</v>
+        <v>13.0412464059646</v>
       </c>
       <c r="D20">
-        <v>4.202387487272039</v>
+        <v>7.027138678209203</v>
       </c>
       <c r="E20">
-        <v>8.758731676223469</v>
+        <v>13.05404546028846</v>
       </c>
       <c r="F20">
-        <v>31.34625701219228</v>
+        <v>35.70731020026435</v>
       </c>
       <c r="G20">
-        <v>45.68478986145219</v>
+        <v>48.76454860134299</v>
       </c>
       <c r="H20">
-        <v>13.14294295326437</v>
+        <v>18.92145144035084</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.09547163911256</v>
+        <v>18.27537130601393</v>
       </c>
       <c r="L20">
-        <v>5.009465838774855</v>
+        <v>8.971838007048847</v>
       </c>
       <c r="M20">
-        <v>19.57607571567656</v>
+        <v>19.55543067810025</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.65648434582416</v>
+        <v>13.10142830230103</v>
       </c>
       <c r="D21">
-        <v>4.067684554216096</v>
+        <v>6.998608624108556</v>
       </c>
       <c r="E21">
-        <v>8.944487622305532</v>
+        <v>13.04171198045583</v>
       </c>
       <c r="F21">
-        <v>32.68553018223723</v>
+        <v>35.79776127843755</v>
       </c>
       <c r="G21">
-        <v>47.81969009250265</v>
+        <v>48.94262198110039</v>
       </c>
       <c r="H21">
-        <v>13.39796152080633</v>
+        <v>18.87978840377094</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.70989042033281</v>
+        <v>18.8014707305319</v>
       </c>
       <c r="L21">
-        <v>4.962962008468894</v>
+        <v>8.947206785416824</v>
       </c>
       <c r="M21">
-        <v>20.85201986719689</v>
+        <v>19.7888597624971</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.98523163419174</v>
+        <v>13.14325415682783</v>
       </c>
       <c r="D22">
-        <v>3.979104424050862</v>
+        <v>6.980501784207932</v>
       </c>
       <c r="E22">
-        <v>9.072305940133848</v>
+        <v>13.03574595765026</v>
       </c>
       <c r="F22">
-        <v>33.58585535202911</v>
+        <v>35.86713223451093</v>
       </c>
       <c r="G22">
-        <v>49.25498494416833</v>
+        <v>49.07501187019739</v>
       </c>
       <c r="H22">
-        <v>13.58232544081931</v>
+        <v>18.85663233275616</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.72858815136661</v>
+        <v>19.1399171547673</v>
       </c>
       <c r="L22">
-        <v>4.934484701995848</v>
+        <v>8.931887126657561</v>
       </c>
       <c r="M22">
-        <v>21.65812782312281</v>
+        <v>19.9430274796365</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.80973682328746</v>
+        <v>13.12070516033584</v>
       </c>
       <c r="D23">
-        <v>4.026444668875251</v>
+        <v>6.990116635315189</v>
       </c>
       <c r="E23">
-        <v>9.003483079652895</v>
+        <v>13.03873834476556</v>
       </c>
       <c r="F23">
-        <v>33.10299880494408</v>
+        <v>35.82917071564034</v>
       </c>
       <c r="G23">
-        <v>48.485205022213</v>
+        <v>49.00289200929786</v>
       </c>
       <c r="H23">
-        <v>13.48224651548683</v>
+        <v>18.86861716482528</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.188150242199</v>
+        <v>18.95981060338925</v>
       </c>
       <c r="L23">
-        <v>4.949502931123331</v>
+        <v>8.939992411653201</v>
       </c>
       <c r="M23">
-        <v>21.23037534746936</v>
+        <v>19.86061125601066</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.14584221569452</v>
+        <v>13.04030537766774</v>
       </c>
       <c r="D24">
-        <v>4.204582890656278</v>
+        <v>7.02761414075577</v>
       </c>
       <c r="E24">
-        <v>8.755800340176256</v>
+        <v>13.05428237264669</v>
       </c>
       <c r="F24">
-        <v>31.32478143828742</v>
+        <v>35.70600521974779</v>
       </c>
       <c r="G24">
-        <v>45.65055783448588</v>
+        <v>48.76190906376087</v>
       </c>
       <c r="H24">
-        <v>13.13906006123498</v>
+        <v>18.92220086594208</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.06845451975357</v>
+        <v>18.26668967240287</v>
       </c>
       <c r="L24">
-        <v>5.010257130262538</v>
+        <v>8.972253754347436</v>
       </c>
       <c r="M24">
-        <v>19.55473878651182</v>
+        <v>19.55164548362991</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.43176186270087</v>
+        <v>12.96451011574478</v>
       </c>
       <c r="D25">
-        <v>4.395679662805374</v>
+        <v>7.070399462594007</v>
       </c>
       <c r="E25">
-        <v>8.514634663456553</v>
+        <v>13.08002494473775</v>
       </c>
       <c r="F25">
-        <v>29.51107505528934</v>
+        <v>35.6172561153225</v>
       </c>
       <c r="G25">
-        <v>42.75981422072058</v>
+        <v>48.57094364934061</v>
       </c>
       <c r="H25">
-        <v>12.8388391385456</v>
+        <v>18.99734899921087</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.61894683175251</v>
+        <v>17.49974133222961</v>
       </c>
       <c r="L25">
-        <v>5.083535703234103</v>
+        <v>9.010405239005328</v>
       </c>
       <c r="M25">
-        <v>17.7178269134657</v>
+        <v>19.22660040362172</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_169/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_169/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.918295161877</v>
+        <v>9.908999186687797</v>
       </c>
       <c r="D2">
-        <v>7.103945128901083</v>
+        <v>4.536789397394993</v>
       </c>
       <c r="E2">
-        <v>13.106672879016</v>
+        <v>8.357818771526079</v>
       </c>
       <c r="F2">
-        <v>35.58975141445249</v>
+        <v>28.26348180175341</v>
       </c>
       <c r="G2">
-        <v>48.48959649390691</v>
+        <v>40.77210265002778</v>
       </c>
       <c r="H2">
-        <v>19.06744198685161</v>
+        <v>12.67139937549136</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.92297178975247</v>
+        <v>20.66815979089128</v>
       </c>
       <c r="L2">
-        <v>9.041396333130493</v>
+        <v>5.143716587701448</v>
       </c>
       <c r="M2">
-        <v>18.99571619886904</v>
+        <v>16.48432482465898</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>12.89303684160258</v>
+        <v>9.557747714390977</v>
       </c>
       <c r="D3">
-        <v>7.127969977274086</v>
+        <v>4.633262480545311</v>
       </c>
       <c r="E3">
-        <v>13.12951576712277</v>
+        <v>8.263725324727309</v>
       </c>
       <c r="F3">
-        <v>35.59459545528607</v>
+        <v>27.4724492848134</v>
       </c>
       <c r="G3">
-        <v>48.47125231731943</v>
+        <v>39.51257904096157</v>
       </c>
       <c r="H3">
-        <v>19.1240674005624</v>
+        <v>12.58808738001686</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.52711855544097</v>
+        <v>19.25111622305261</v>
       </c>
       <c r="L3">
-        <v>9.064217242582453</v>
+        <v>5.188207860593257</v>
       </c>
       <c r="M3">
-        <v>18.84518672540883</v>
+        <v>15.61508722333118</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>12.88053874046285</v>
+        <v>9.3440881108914</v>
       </c>
       <c r="D4">
-        <v>7.143363264747961</v>
+        <v>4.693089608177123</v>
       </c>
       <c r="E4">
-        <v>13.14589474471633</v>
+        <v>8.211707983956288</v>
       </c>
       <c r="F4">
-        <v>35.60909272466211</v>
+        <v>27.01356441467975</v>
       </c>
       <c r="G4">
-        <v>48.47803157103592</v>
+        <v>38.78243385348259</v>
       </c>
       <c r="H4">
-        <v>19.16330571935821</v>
+        <v>12.55071597480439</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.28253997284509</v>
+        <v>18.33324477416268</v>
       </c>
       <c r="L4">
-        <v>9.079128988207758</v>
+        <v>5.217304009864288</v>
       </c>
       <c r="M4">
-        <v>18.75591056551995</v>
+        <v>15.06604642247434</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>12.87620540207645</v>
+        <v>9.257615740543184</v>
       </c>
       <c r="D5">
-        <v>7.149798315937336</v>
+        <v>4.717642967548379</v>
       </c>
       <c r="E5">
-        <v>13.15316015756776</v>
+        <v>8.191920239359991</v>
       </c>
       <c r="F5">
-        <v>35.61788741569617</v>
+        <v>26.83329478898765</v>
       </c>
       <c r="G5">
-        <v>48.4853125045975</v>
+        <v>38.49575275086526</v>
       </c>
       <c r="H5">
-        <v>19.1804151840398</v>
+        <v>12.53878910935204</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.18263658412292</v>
+        <v>17.94705295147255</v>
       </c>
       <c r="L5">
-        <v>9.085432266825419</v>
+        <v>5.229601458388404</v>
       </c>
       <c r="M5">
-        <v>18.72035403059067</v>
+        <v>14.83867125612866</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12.87553180615337</v>
+        <v>9.243295844830987</v>
       </c>
       <c r="D6">
-        <v>7.150876667287077</v>
+        <v>4.721731187930492</v>
       </c>
       <c r="E6">
-        <v>13.15440223069518</v>
+        <v>8.188718516351848</v>
       </c>
       <c r="F6">
-        <v>35.61952177697255</v>
+        <v>26.8037669139062</v>
       </c>
       <c r="G6">
-        <v>48.48679376113039</v>
+        <v>38.44880465893468</v>
       </c>
       <c r="H6">
-        <v>19.18332368000112</v>
+        <v>12.53700331633785</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.16603788089413</v>
+        <v>17.88218843235683</v>
       </c>
       <c r="L6">
-        <v>9.086492620789555</v>
+        <v>5.231669866775215</v>
       </c>
       <c r="M6">
-        <v>18.7145005901843</v>
+        <v>14.80070347571597</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>12.8804772203395</v>
+        <v>9.342919376995837</v>
       </c>
       <c r="D7">
-        <v>7.143449392557521</v>
+        <v>4.693420010405604</v>
       </c>
       <c r="E7">
-        <v>13.14599033759708</v>
+        <v>8.211435462272544</v>
       </c>
       <c r="F7">
-        <v>35.60919965970772</v>
+        <v>27.01110601564453</v>
       </c>
       <c r="G7">
-        <v>48.47811149790135</v>
+        <v>38.77852363342287</v>
       </c>
       <c r="H7">
-        <v>19.16353193679377</v>
+        <v>12.55054197069087</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.2811933962777</v>
+        <v>18.32808582793604</v>
       </c>
       <c r="L7">
-        <v>9.079213078313456</v>
+        <v>5.21746808210179</v>
       </c>
       <c r="M7">
-        <v>18.75542765890399</v>
+        <v>15.06299436201994</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.90896306255167</v>
+        <v>9.787521584986331</v>
       </c>
       <c r="D8">
-        <v>7.112096110438987</v>
+        <v>4.569945546736887</v>
       </c>
       <c r="E8">
-        <v>13.11406013947048</v>
+        <v>8.324158200097497</v>
       </c>
       <c r="F8">
-        <v>35.58902432560549</v>
+        <v>27.98516529529261</v>
       </c>
       <c r="G8">
-        <v>48.47951682632047</v>
+        <v>40.32885471482012</v>
       </c>
       <c r="H8">
-        <v>19.08603599290167</v>
+        <v>12.63971481645811</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.78688440083184</v>
+        <v>20.18940265200556</v>
       </c>
       <c r="L8">
-        <v>9.049078511499676</v>
+        <v>5.158683860076129</v>
       </c>
       <c r="M8">
-        <v>18.94317971773953</v>
+        <v>16.18790734617625</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>12.988563597117</v>
+        <v>10.67195139428987</v>
       </c>
       <c r="D9">
-        <v>7.055671935964545</v>
+        <v>4.331328422710126</v>
       </c>
       <c r="E9">
-        <v>13.07015645676036</v>
+        <v>8.592544655403621</v>
       </c>
       <c r="F9">
-        <v>35.64126264903014</v>
+        <v>30.10830830005326</v>
       </c>
       <c r="G9">
-        <v>48.62605229249938</v>
+        <v>43.71161917083926</v>
       </c>
       <c r="H9">
-        <v>18.96973113091391</v>
+        <v>12.93120531707863</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.76028493596618</v>
+        <v>23.46649626143817</v>
       </c>
       <c r="L9">
-        <v>8.997104460543927</v>
+        <v>5.057858191481237</v>
       </c>
       <c r="M9">
-        <v>19.33487188304712</v>
+        <v>18.29048235861589</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.06127795791999</v>
+        <v>11.32590590193157</v>
       </c>
       <c r="D10">
-        <v>7.017253896737169</v>
+        <v>4.156380917708698</v>
       </c>
       <c r="E10">
-        <v>13.04935597988921</v>
+        <v>8.820901205687518</v>
       </c>
       <c r="F10">
-        <v>35.73596464366022</v>
+        <v>31.79906687892652</v>
       </c>
       <c r="G10">
-        <v>48.82189571095721</v>
+        <v>46.40658064040387</v>
       </c>
       <c r="H10">
-        <v>18.90628449656656</v>
+        <v>13.22639196089746</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.45653557215127</v>
+        <v>25.65627217554585</v>
       </c>
       <c r="L10">
-        <v>8.963234217349928</v>
+        <v>4.993134222237522</v>
       </c>
       <c r="M10">
-        <v>19.63492397590771</v>
+        <v>20.01908771774663</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.09738249617869</v>
+        <v>11.62390556650334</v>
       </c>
       <c r="D11">
-        <v>7.000425831450706</v>
+        <v>4.076440467905237</v>
       </c>
       <c r="E11">
-        <v>13.04238913344264</v>
+        <v>8.932082279089155</v>
       </c>
       <c r="F11">
-        <v>35.79130196128144</v>
+        <v>32.59730213713755</v>
       </c>
       <c r="G11">
-        <v>48.93014881395691</v>
+        <v>47.67904225197359</v>
       </c>
       <c r="H11">
-        <v>18.88225113467887</v>
+        <v>13.38042509166766</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.76768279774286</v>
+        <v>26.60742398817714</v>
       </c>
       <c r="L11">
-        <v>8.948757458716704</v>
+        <v>4.965865446025424</v>
       </c>
       <c r="M11">
-        <v>19.77363589346464</v>
+        <v>20.77097992783096</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.11148291078159</v>
+        <v>11.7368143684004</v>
       </c>
       <c r="D12">
-        <v>6.994145969235007</v>
+        <v>4.046078890564496</v>
       </c>
       <c r="E12">
-        <v>13.04011027382665</v>
+        <v>8.975280527559949</v>
       </c>
       <c r="F12">
-        <v>35.814017052692</v>
+        <v>32.90385684159087</v>
       </c>
       <c r="G12">
-        <v>48.97388964074673</v>
+        <v>48.16773693709209</v>
       </c>
       <c r="H12">
-        <v>18.87384871784806</v>
+        <v>13.4417745720598</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.88459082440583</v>
+        <v>26.96133794915588</v>
       </c>
       <c r="L12">
-        <v>8.943408971679773</v>
+        <v>4.955866578344136</v>
       </c>
       <c r="M12">
-        <v>19.82644218917697</v>
+        <v>21.05092087854758</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.10842719540621</v>
+        <v>11.71249459904118</v>
       </c>
       <c r="D13">
-        <v>6.995494344184033</v>
+        <v>4.05262244505271</v>
       </c>
       <c r="E13">
-        <v>13.04058507887873</v>
+        <v>8.965927454912478</v>
       </c>
       <c r="F13">
-        <v>35.80904673954651</v>
+        <v>32.83764235508123</v>
       </c>
       <c r="G13">
-        <v>48.96434724441883</v>
+        <v>48.06218013590551</v>
       </c>
       <c r="H13">
-        <v>18.87562719946914</v>
+        <v>13.42842458744436</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.85945508472485</v>
+        <v>26.88539152318161</v>
       </c>
       <c r="L13">
-        <v>8.944554929648918</v>
+        <v>4.958005205958378</v>
       </c>
       <c r="M13">
-        <v>19.81505762914014</v>
+        <v>20.99084047633952</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.09853400094301</v>
+        <v>11.63319337249779</v>
       </c>
       <c r="D14">
-        <v>6.99990733228719</v>
+        <v>4.073944636185531</v>
       </c>
       <c r="E14">
-        <v>13.04219444627218</v>
+        <v>8.935613967464104</v>
       </c>
       <c r="F14">
-        <v>35.79313549488663</v>
+        <v>32.62243606191607</v>
       </c>
       <c r="G14">
-        <v>48.93369239270118</v>
+        <v>47.71910915794692</v>
       </c>
       <c r="H14">
-        <v>18.88154584104583</v>
+        <v>13.38541076023964</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.77731988631687</v>
+        <v>26.6366650663799</v>
       </c>
       <c r="L14">
-        <v>8.94831476083497</v>
+        <v>4.96503618433462</v>
       </c>
       <c r="M14">
-        <v>19.77797493350619</v>
+        <v>20.79410568726213</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.09252971294793</v>
+        <v>11.58462728496315</v>
       </c>
       <c r="D15">
-        <v>7.002622448670233</v>
+        <v>4.086992190595719</v>
       </c>
       <c r="E15">
-        <v>13.04322703891795</v>
+        <v>8.917190328227743</v>
       </c>
       <c r="F15">
-        <v>35.78361849089806</v>
+        <v>32.49117712754948</v>
       </c>
       <c r="G15">
-        <v>48.91527292566303</v>
+        <v>47.50986524058797</v>
       </c>
       <c r="H15">
-        <v>18.88526226335491</v>
+        <v>13.35946236091697</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.7268870861661</v>
+        <v>26.48350317029219</v>
       </c>
       <c r="L15">
-        <v>8.950635148193621</v>
+        <v>4.969385943102635</v>
       </c>
       <c r="M15">
-        <v>19.75529587816633</v>
+        <v>20.67298223268957</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.05897877531683</v>
+        <v>11.30643984275593</v>
       </c>
       <c r="D16">
-        <v>7.018366640436051</v>
+        <v>4.161594814481093</v>
       </c>
       <c r="E16">
-        <v>13.04986153882227</v>
+        <v>8.813786043335792</v>
       </c>
       <c r="F16">
-        <v>35.73259470733986</v>
+        <v>31.74749296694789</v>
       </c>
       <c r="G16">
-        <v>48.81520616541081</v>
+        <v>46.32436930874525</v>
       </c>
       <c r="H16">
-        <v>18.90795265811104</v>
+        <v>13.21673825656549</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.43607911431458</v>
+        <v>25.59322379554498</v>
       </c>
       <c r="L16">
-        <v>8.964199013248544</v>
+        <v>4.994961253383088</v>
       </c>
       <c r="M16">
-        <v>19.62590004778721</v>
+        <v>19.96927063991525</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.03916687672105</v>
+        <v>11.13589801892494</v>
       </c>
       <c r="D17">
-        <v>7.028190792439346</v>
+        <v>4.207243374646776</v>
       </c>
       <c r="E17">
-        <v>13.05457111319326</v>
+        <v>8.752252449492092</v>
       </c>
       <c r="F17">
-        <v>35.70443161458347</v>
+        <v>31.29877318474795</v>
       </c>
       <c r="G17">
-        <v>48.75872254082394</v>
+        <v>45.60910080139984</v>
       </c>
       <c r="H17">
-        <v>18.9231122513174</v>
+        <v>13.13436693889736</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.25616452160415</v>
+        <v>25.03568217467846</v>
       </c>
       <c r="L17">
-        <v>8.972758217791453</v>
+        <v>5.011217526527465</v>
       </c>
       <c r="M17">
-        <v>19.54705952574392</v>
+        <v>19.52885732146613</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.02805690472259</v>
+        <v>11.03785454954738</v>
       </c>
       <c r="D18">
-        <v>7.033902465031224</v>
+        <v>4.233468210165247</v>
       </c>
       <c r="E18">
-        <v>13.05751479190883</v>
+        <v>8.71754410219236</v>
       </c>
       <c r="F18">
-        <v>35.68938693968911</v>
+        <v>31.04341220052884</v>
       </c>
       <c r="G18">
-        <v>48.7280391573114</v>
+        <v>45.20206130038773</v>
       </c>
       <c r="H18">
-        <v>18.93228592714488</v>
+        <v>13.08883718329482</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.15216340820511</v>
+        <v>24.71075132013272</v>
       </c>
       <c r="L18">
-        <v>8.97776889374823</v>
+        <v>5.02077139267198</v>
       </c>
       <c r="M18">
-        <v>19.50192358756158</v>
+        <v>19.27228868783175</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.02434445714508</v>
+        <v>11.0046675646095</v>
       </c>
       <c r="D19">
-        <v>7.03584685098726</v>
+        <v>4.242343292125361</v>
       </c>
       <c r="E19">
-        <v>13.05855179051104</v>
+        <v>8.705908609253422</v>
       </c>
       <c r="F19">
-        <v>35.68449130333203</v>
+        <v>30.95741824460983</v>
       </c>
       <c r="G19">
-        <v>48.71796037302333</v>
+        <v>45.06499096047111</v>
       </c>
       <c r="H19">
-        <v>18.93546987021357</v>
+        <v>13.07373359271375</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.11686490006816</v>
+        <v>24.5999998969384</v>
       </c>
       <c r="L19">
-        <v>8.979480486205869</v>
+        <v>5.024040741049183</v>
       </c>
       <c r="M19">
-        <v>19.48667878539856</v>
+        <v>19.18485503152693</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.0412464059646</v>
+        <v>11.15404769612741</v>
       </c>
       <c r="D20">
-        <v>7.027138678209203</v>
+        <v>4.202387487272106</v>
       </c>
       <c r="E20">
-        <v>13.05404546028846</v>
+        <v>8.758731676223395</v>
       </c>
       <c r="F20">
-        <v>35.70731020026435</v>
+        <v>31.34625701219228</v>
       </c>
       <c r="G20">
-        <v>48.76454860134299</v>
+        <v>45.68478986145224</v>
       </c>
       <c r="H20">
-        <v>18.92145144035084</v>
+        <v>13.14294295326437</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.27537130601393</v>
+        <v>25.09547163911257</v>
       </c>
       <c r="L20">
-        <v>8.971838007048847</v>
+        <v>5.009465838774799</v>
       </c>
       <c r="M20">
-        <v>19.55543067810025</v>
+        <v>19.57607571567658</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.10142830230103</v>
+        <v>11.65648434582423</v>
       </c>
       <c r="D21">
-        <v>6.998608624108556</v>
+        <v>4.067684554216225</v>
       </c>
       <c r="E21">
-        <v>13.04171198045583</v>
+        <v>8.944487622305541</v>
       </c>
       <c r="F21">
-        <v>35.79776127843755</v>
+        <v>32.68553018223724</v>
       </c>
       <c r="G21">
-        <v>48.94262198110039</v>
+        <v>47.81969009250268</v>
       </c>
       <c r="H21">
-        <v>18.87978840377094</v>
+        <v>13.39796152080635</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.8014707305319</v>
+        <v>26.70989042033284</v>
       </c>
       <c r="L21">
-        <v>8.947206785416824</v>
+        <v>4.962962008468927</v>
       </c>
       <c r="M21">
-        <v>19.7888597624971</v>
+        <v>20.85201986719693</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.14325415682783</v>
+        <v>11.98523163419179</v>
       </c>
       <c r="D22">
-        <v>6.980501784207932</v>
+        <v>3.979104424050925</v>
       </c>
       <c r="E22">
-        <v>13.03574595765026</v>
+        <v>9.072305940133832</v>
       </c>
       <c r="F22">
-        <v>35.86713223451093</v>
+        <v>33.58585535202914</v>
       </c>
       <c r="G22">
-        <v>49.07501187019739</v>
+        <v>49.25498494416842</v>
       </c>
       <c r="H22">
-        <v>18.85663233275616</v>
+        <v>13.58232544081932</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.1399171547673</v>
+        <v>27.72858815136662</v>
       </c>
       <c r="L22">
-        <v>8.931887126657561</v>
+        <v>4.934484701995796</v>
       </c>
       <c r="M22">
-        <v>19.9430274796365</v>
+        <v>21.65812782312284</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.12070516033584</v>
+        <v>11.80973682328745</v>
       </c>
       <c r="D23">
-        <v>6.990116635315189</v>
+        <v>4.026444668875182</v>
       </c>
       <c r="E23">
-        <v>13.03873834476556</v>
+        <v>9.003483079652957</v>
       </c>
       <c r="F23">
-        <v>35.82917071564034</v>
+        <v>33.10299880494414</v>
       </c>
       <c r="G23">
-        <v>49.00289200929786</v>
+        <v>48.48520502221313</v>
       </c>
       <c r="H23">
-        <v>18.86861716482528</v>
+        <v>13.48224651548684</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.95981060338925</v>
+        <v>27.18815024219897</v>
       </c>
       <c r="L23">
-        <v>8.939992411653201</v>
+        <v>4.949502931123308</v>
       </c>
       <c r="M23">
-        <v>19.86061125601066</v>
+        <v>21.23037534746931</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.04030537766774</v>
+        <v>11.14584221569465</v>
       </c>
       <c r="D24">
-        <v>7.02761414075577</v>
+        <v>4.204582890656146</v>
       </c>
       <c r="E24">
-        <v>13.05428237264669</v>
+        <v>8.75580034017632</v>
       </c>
       <c r="F24">
-        <v>35.70600521974779</v>
+        <v>31.32478143828746</v>
       </c>
       <c r="G24">
-        <v>48.76190906376087</v>
+        <v>45.65055783448588</v>
       </c>
       <c r="H24">
-        <v>18.92220086594208</v>
+        <v>13.13906006123498</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.26668967240287</v>
+        <v>25.06845451975359</v>
       </c>
       <c r="L24">
-        <v>8.972253754347436</v>
+        <v>5.010257130262454</v>
       </c>
       <c r="M24">
-        <v>19.55164548362991</v>
+        <v>19.55473878651184</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.96451011574478</v>
+        <v>10.43176186270095</v>
       </c>
       <c r="D25">
-        <v>7.070399462594007</v>
+        <v>4.395679662805237</v>
       </c>
       <c r="E25">
-        <v>13.08002494473775</v>
+        <v>8.514634663456588</v>
       </c>
       <c r="F25">
-        <v>35.6172561153225</v>
+        <v>29.51107505528931</v>
       </c>
       <c r="G25">
-        <v>48.57094364934061</v>
+        <v>42.75981422072053</v>
       </c>
       <c r="H25">
-        <v>18.99734899921087</v>
+        <v>12.8388391385456</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.49974133222961</v>
+        <v>22.61894683175257</v>
       </c>
       <c r="L25">
-        <v>9.010405239005328</v>
+        <v>5.083535703234101</v>
       </c>
       <c r="M25">
-        <v>19.22660040362172</v>
+        <v>17.7178269134657</v>
       </c>
       <c r="N25">
         <v>0</v>
